--- a/01 Raw/produtores/Ribaue/Lista_caracteristicas_Ribaue.xlsx
+++ b/01 Raw/produtores/Ribaue/Lista_caracteristicas_Ribaue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\01 Raw\produtores\Ribaue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B680BC7-E6D1-441E-8D10-CAA6A39B5AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E715DCD-E233-4CD9-85D5-02624DAE955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25474970-004F-452D-B3EC-28DA13FE6F48}"/>
+    <workbookView xWindow="7908" yWindow="0" windowWidth="12696" windowHeight="12240" xr2:uid="{25474970-004F-452D-B3EC-28DA13FE6F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Caracteristicas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Irmao</t>
   </si>
   <si>
-    <t>6 anos</t>
-  </si>
-  <si>
     <t>MO0131</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Cunhado e sobrinho</t>
   </si>
   <si>
-    <t xml:space="preserve">6 anos </t>
-  </si>
-  <si>
     <t>MO0133</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>Sobrinho</t>
   </si>
   <si>
-    <t>2 anos</t>
-  </si>
-  <si>
     <t>MO0100</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>Cunhada</t>
   </si>
   <si>
-    <t>3 anos</t>
-  </si>
-  <si>
     <t>MO0101</t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t>Neta</t>
   </si>
   <si>
-    <t>7 anos</t>
-  </si>
-  <si>
     <t>MO0109</t>
   </si>
   <si>
@@ -335,18 +320,12 @@
     <t>Sobrinha</t>
   </si>
   <si>
-    <t>4 anos</t>
-  </si>
-  <si>
     <t>MO0111</t>
   </si>
   <si>
     <t>Serafina Mateus Waene</t>
   </si>
   <si>
-    <t>8 anos</t>
-  </si>
-  <si>
     <t>MO0112</t>
   </si>
   <si>
@@ -359,16 +338,22 @@
     <t>Membro Influente na comunidade?</t>
   </si>
   <si>
-    <t>A quanto tempo tem ganho rendimentos com a produção de Mel</t>
-  </si>
-  <si>
     <t>Ribaue</t>
   </si>
   <si>
     <t>Regão</t>
   </si>
   <si>
-    <t>Cabo Delgado</t>
+    <t>Nampula</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>deslocado</t>
   </si>
 </sst>
 </file>
@@ -783,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F34CEA-A288-4DC2-AEA1-CB2E1FD24D58}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,12 +788,12 @@
     <col min="15" max="15" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -826,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -844,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -867,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
@@ -891,18 +876,18 @@
         <v>19</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -915,7 +900,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -933,24 +918,24 @@
         <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
@@ -963,16 +948,16 @@
         <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>17</v>
@@ -987,18 +972,18 @@
         <v>19</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
@@ -1010,16 +995,16 @@
         <v>53</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
@@ -1028,24 +1013,24 @@
         <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1058,10 +1043,10 @@
         <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>17</v>
@@ -1076,24 +1061,24 @@
         <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -1105,42 +1090,42 @@
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -1153,7 +1138,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>16</v>
@@ -1162,33 +1147,33 @@
         <v>19</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -1201,16 +1186,16 @@
         <v>67</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>17</v>
@@ -1219,24 +1204,24 @@
         <v>19</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
@@ -1249,10 +1234,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>17</v>
@@ -1267,24 +1252,24 @@
         <v>19</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
@@ -1297,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>16</v>
@@ -1309,30 +1294,30 @@
         <v>18</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
@@ -1344,7 +1329,7 @@
         <v>85</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>16</v>
@@ -1353,96 +1338,96 @@
         <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5">
         <f>2023-1968</f>
         <v>55</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="M13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E14" s="5">
         <v>70</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
@@ -1457,39 +1442,39 @@
         <v>19</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5">
         <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>17</v>
@@ -1504,39 +1489,39 @@
         <v>19</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5">
         <v>70</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>17</v>
@@ -1551,39 +1536,39 @@
         <v>17</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5">
         <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
@@ -1598,39 +1583,39 @@
         <v>19</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E18" s="5">
         <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>17</v>
@@ -1645,39 +1630,39 @@
         <v>19</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5">
         <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>17</v>
@@ -1692,39 +1677,39 @@
         <v>19</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>17</v>
@@ -1739,39 +1724,39 @@
         <v>17</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
@@ -1786,39 +1771,39 @@
         <v>17</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5">
         <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>17</v>
@@ -1833,39 +1818,39 @@
         <v>19</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5">
         <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
@@ -1880,39 +1865,39 @@
         <v>19</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5">
         <v>54</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>17</v>
@@ -1927,39 +1912,39 @@
         <v>19</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5">
         <v>48</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>17</v>
@@ -1974,39 +1959,39 @@
         <v>19</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>17</v>
@@ -2021,16 +2006,16 @@
         <v>17</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
